--- a/stock_portfolio.xlsx
+++ b/stock_portfolio.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Error: Failed to fetch data: Too Many Requests. Rate limited. Try after a while.</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Error: Failed to fetch data: Too Many Requests. Rate limited. Try after a while.</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Error: Failed to fetch data: Too Many Requests. Rate limited. Try after a while.</t>
         </is>
       </c>
     </row>
